--- a/Excel/DCA/2020.12.26 Stoploss Management.xlsx
+++ b/Excel/DCA/2020.12.26 Stoploss Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phips\Documents\GitHub\ProfitTrailer\Excel\DCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9522CB66-5FE8-4757-86A9-69B9E9AF0C33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F75D0C1-B080-4286-9B5D-E8F2665C5211}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B0D0678C-85B3-486A-B817-EE8F81968550}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Enter your TOTAL Capital in USD</t>
   </si>
@@ -99,10 +99,8 @@
     <t>To unlock the page: 1234</t>
   </si>
   <si>
-    <t>Stop max</t>
-  </si>
-  <si>
-    <t>achat initial</t>
+    <t>It is recommended to use a stoploss of 
+2 or 3% of the total capital.</t>
   </si>
 </sst>
 </file>
@@ -173,7 +171,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,8 +196,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -303,11 +307,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -333,115 +346,117 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -450,7 +465,7 @@
   <dxfs count="1">
     <dxf>
       <font>
-        <color theme="0"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -773,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E847558C-9CD0-48BF-87A5-9768A80357F9}">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -788,407 +803,336 @@
     <col min="5" max="5" width="14.44140625" style="1"/>
     <col min="6" max="6" width="12.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="14.44140625" style="2"/>
+    <col min="8" max="8" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="14.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="36"/>
-    </row>
-    <row r="2" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="26" t="s">
+      <c r="B1" s="34"/>
+    </row>
+    <row r="2" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
-    </row>
-    <row r="3" spans="1:15" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="37" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="1:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37" t="s">
+      <c r="H3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="18" t="s">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="35">
         <v>1000</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="18">
         <v>0</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="20">
         <f>C4/100*C6</f>
         <v>20</v>
       </c>
-      <c r="H4" s="23">
-        <f>($B$10/$C$4)*G4</f>
-        <v>0.2</v>
-      </c>
-      <c r="I4" s="24">
-        <f>($B$10/(($B$10/$C$4)*G4))/100</f>
+      <c r="H4" s="21">
+        <f>$B$10/G4</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="26"/>
+      <c r="L4" s="26"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="4"/>
+      <c r="E5" s="18">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
         <v>0.5</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="38">
-        <v>20</v>
-      </c>
-      <c r="L4" s="2">
-        <v>100</v>
-      </c>
-      <c r="M4" s="38">
-        <f>L4/100*K4</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="4"/>
-      <c r="E5" s="21">
+      <c r="G5" s="20">
+        <f>SUM(G4*F5)+G4</f>
+        <v>30</v>
+      </c>
+      <c r="H5" s="21">
+        <f t="shared" ref="H5:H14" si="0">$B$10/G5</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="26"/>
+      <c r="L5" s="26"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="36">
+        <v>2</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="5">
+      <c r="E6" s="18">
         <v>2</v>
       </c>
-      <c r="G5" s="23">
-        <f>SUM(G4*F5)+G4</f>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="20">
+        <f t="shared" ref="G6:G14" si="1">SUM(G5*F6)+G5</f>
         <v>60</v>
       </c>
-      <c r="H5" s="23">
-        <f>($B$10/$C$4)*G5</f>
-        <v>0.6</v>
-      </c>
-      <c r="I5" s="24">
-        <f>($B$10/(($B$10/$C$4)*G5))/100</f>
-        <v>0.16666666666666669</v>
-      </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="38">
-        <v>20</v>
-      </c>
-      <c r="L5" s="2">
-        <v>200</v>
-      </c>
-      <c r="M5" s="38">
-        <f>L5/100*K5</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="33">
-        <v>2</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="21">
-        <v>2</v>
-      </c>
-      <c r="F6" s="5">
-        <v>2</v>
-      </c>
-      <c r="G6" s="23">
-        <f t="shared" ref="G6:G14" si="0">SUM(G5*F6)+G5</f>
-        <v>180</v>
-      </c>
-      <c r="H6" s="23">
-        <f>($B$10/$C$4)*G6</f>
-        <v>1.8</v>
-      </c>
-      <c r="I6" s="24">
-        <f>($B$10/(($B$10/$C$4)*G6))/100</f>
-        <v>5.5555555555555552E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="34">
+      <c r="H6" s="21">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="32">
         <f>C4/100*C6</f>
         <v>20</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="19" t="s">
+      <c r="C7" s="33"/>
+      <c r="D7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="18">
         <v>3</v>
       </c>
       <c r="F7" s="5">
-        <v>2</v>
-      </c>
-      <c r="G7" s="23">
+        <v>1</v>
+      </c>
+      <c r="G7" s="20">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="H7" s="21">
         <f t="shared" si="0"/>
-        <v>540</v>
-      </c>
-      <c r="H7" s="23">
-        <f>($B$10/$C$4)*G7</f>
-        <v>5.4</v>
-      </c>
-      <c r="I7" s="24">
-        <f>($B$10/(($B$10/$C$4)*G7))/100</f>
-        <v>1.8518518518518517E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E8" s="21">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="18">
         <v>4</v>
       </c>
       <c r="F8" s="5">
         <v>2</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="20">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="H8" s="21">
         <f t="shared" si="0"/>
-        <v>1620</v>
-      </c>
-      <c r="H8" s="23">
-        <f>($B$10/$C$4)*G8</f>
-        <v>16.2</v>
-      </c>
-      <c r="I8" s="24">
-        <f>($B$10/(($B$10/$C$4)*G8))/100</f>
-        <v>6.17283950617284E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="37">
+        <v>2</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="25">
+      <c r="E9" s="22">
         <v>5</v>
       </c>
       <c r="F9" s="5">
         <v>2</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="20">
+        <f t="shared" si="1"/>
+        <v>1080</v>
+      </c>
+      <c r="H9" s="21">
         <f t="shared" si="0"/>
-        <v>4860</v>
-      </c>
-      <c r="H9" s="23">
-        <f>($B$10/$C$4)*G9</f>
-        <v>48.6</v>
-      </c>
-      <c r="I9" s="24">
-        <f>($B$10/(($B$10/$C$4)*G9))/100</f>
-        <v>2.05761316872428E-3</v>
-      </c>
-      <c r="M9" s="10"/>
-      <c r="O9" s="11"/>
-    </row>
-    <row r="10" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="29">
+        <v>1.8518518518518517E-2</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="N9" s="10"/>
+    </row>
+    <row r="10" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="30">
         <f>(C4/100)*C9</f>
-        <v>10</v>
-      </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="18">
         <v>6</v>
       </c>
       <c r="F10" s="5">
         <v>2</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="20">
+        <f t="shared" si="1"/>
+        <v>3240</v>
+      </c>
+      <c r="H10" s="21">
         <f t="shared" si="0"/>
-        <v>14580</v>
-      </c>
-      <c r="H10" s="23">
-        <f>($B$10/$C$4)*G10</f>
-        <v>145.80000000000001</v>
-      </c>
-      <c r="I10" s="24">
-        <f>($B$10/(($B$10/$C$4)*G10))/100</f>
-        <v>6.8587105624142645E-4</v>
-      </c>
-      <c r="M10" s="13"/>
-      <c r="O10" s="14"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E11" s="21">
+        <v>6.1728395061728392E-3</v>
+      </c>
+      <c r="L10" s="11"/>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="E11" s="18">
         <v>7</v>
       </c>
       <c r="F11" s="5">
         <v>2</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="20">
+        <f t="shared" si="1"/>
+        <v>9720</v>
+      </c>
+      <c r="H11" s="21">
         <f t="shared" si="0"/>
-        <v>43740</v>
-      </c>
-      <c r="H11" s="23">
-        <f>($B$10/$C$4)*G11</f>
-        <v>437.40000000000003</v>
-      </c>
-      <c r="I11" s="24">
-        <f>($B$10/(($B$10/$C$4)*G11))/100</f>
-        <v>2.2862368541380886E-4</v>
-      </c>
-      <c r="M11" s="13"/>
-      <c r="O11" s="14"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E12" s="21">
+        <v>2.05761316872428E-3</v>
+      </c>
+      <c r="L11" s="11"/>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="E12" s="18">
         <v>8</v>
       </c>
       <c r="F12" s="5">
         <v>2</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="20">
+        <f t="shared" si="1"/>
+        <v>29160</v>
+      </c>
+      <c r="H12" s="21">
         <f t="shared" si="0"/>
-        <v>131220</v>
-      </c>
-      <c r="H12" s="23">
-        <f>($B$10/$C$4)*G12</f>
-        <v>1312.2</v>
-      </c>
-      <c r="I12" s="24">
-        <f>($B$10/(($B$10/$C$4)*G12))/100</f>
-        <v>7.6207895137936279E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+        <v>6.8587105624142656E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D13" s="4"/>
-      <c r="E13" s="21">
+      <c r="E13" s="18">
         <v>9</v>
       </c>
       <c r="F13" s="5">
         <v>2</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="20">
+        <f t="shared" si="1"/>
+        <v>87480</v>
+      </c>
+      <c r="H13" s="21">
         <f t="shared" si="0"/>
-        <v>393660</v>
-      </c>
-      <c r="H13" s="23">
-        <f>($B$10/$C$4)*G13</f>
-        <v>3936.6</v>
-      </c>
-      <c r="I13" s="24">
-        <f>($B$10/(($B$10/$C$4)*G13))/100</f>
-        <v>2.5402631712645428E-5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="25">
+        <v>2.2862368541380886E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="22">
         <v>10</v>
       </c>
       <c r="F14" s="5">
         <v>2</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="20">
+        <f t="shared" si="1"/>
+        <v>262440</v>
+      </c>
+      <c r="H14" s="21">
         <f t="shared" si="0"/>
-        <v>1180980</v>
-      </c>
-      <c r="H14" s="23">
-        <f>($B$10/$C$4)*G14</f>
-        <v>11809.800000000001</v>
-      </c>
-      <c r="I14" s="24">
-        <f>($B$10/(($B$10/$C$4)*G14))/100</f>
-        <v>8.4675439042151428E-6</v>
-      </c>
-      <c r="M14" s="11"/>
-      <c r="O14" s="11"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H15" s="16"/>
-      <c r="I15" s="17"/>
-      <c r="M15" s="13"/>
-      <c r="O15" s="14"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C16" s="31"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="17"/>
-      <c r="M16" s="13"/>
-      <c r="O16" s="14"/>
-    </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H17" s="16"/>
-      <c r="I17" s="17"/>
-    </row>
-    <row r="18" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H18" s="16"/>
-      <c r="I18" s="17"/>
-    </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H19" s="16"/>
-      <c r="I19" s="17"/>
-    </row>
-    <row r="20" spans="8:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H20" s="16"/>
-      <c r="I20" s="17"/>
-    </row>
-    <row r="21" spans="8:9" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H21" s="16"/>
-      <c r="I21" s="17"/>
-    </row>
-    <row r="22" spans="8:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H22" s="16"/>
-      <c r="I22" s="17"/>
-    </row>
-    <row r="23" spans="8:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H23" s="16"/>
-      <c r="I23" s="17"/>
-    </row>
-    <row r="24" spans="8:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H24" s="16"/>
-      <c r="I24" s="17"/>
-    </row>
-    <row r="25" spans="8:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="8:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="8:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="8:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="8:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="8:9" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="8:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="8:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>7.6207895137936292E-5</v>
+      </c>
+      <c r="L14" s="10"/>
+      <c r="N14" s="10"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H15" s="14"/>
+      <c r="L15" s="11"/>
+      <c r="N15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C16" s="23"/>
+      <c r="H16" s="14"/>
+      <c r="L16" s="11"/>
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="8:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" spans="8:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" spans="8:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="8:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="8:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="8:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="8:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="8:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="8:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="8:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="8:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" ht="39" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="E2:I2"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="EvxPiV4HCWYXP7v1b7rptDwFke7eWmUrYZtdhPLy6WehjVW9bDJbX24uJaJms5B2vrFh++LBeVA+rVhbo6ijYA==" saltValue="L1bRq8aOjHqyrEywwCxXyA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="5">
+    <mergeCell ref="E2:H2"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B11:C12"/>
   </mergeCells>
-  <conditionalFormatting sqref="G5:H14">
+  <conditionalFormatting sqref="E4:H14">
     <cfRule type="expression" dxfId="0" priority="3">
-      <formula>$G5&gt;$C$4</formula>
+      <formula>$G4&gt;$C$4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/DCA/2020.12.26 Stoploss Management.xlsx
+++ b/Excel/DCA/2020.12.26 Stoploss Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phips\Documents\GitHub\ProfitTrailer\Excel\DCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F75D0C1-B080-4286-9B5D-E8F2665C5211}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C40AC4-1085-41D5-B917-30A074C51099}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B0D0678C-85B3-486A-B817-EE8F81968550}"/>
   </bookViews>
@@ -416,6 +416,15 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -438,15 +447,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -791,7 +791,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -808,18 +808,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="29"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E3" s="25" t="s">
@@ -839,7 +839,7 @@
       <c r="B4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="27">
         <v>1000</v>
       </c>
       <c r="E4" s="18">
@@ -884,7 +884,7 @@
       <c r="B6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="28">
         <v>2</v>
       </c>
       <c r="D6" s="16" t="s">
@@ -906,11 +906,11 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="32">
+      <c r="B7" s="35">
         <f>C4/100*C6</f>
         <v>20</v>
       </c>
-      <c r="C7" s="33"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="16" t="s">
         <v>7</v>
       </c>
@@ -949,7 +949,7 @@
       <c r="B9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="29">
         <v>2</v>
       </c>
       <c r="D9" s="16" t="s">
@@ -973,11 +973,11 @@
       <c r="N9" s="10"/>
     </row>
     <row r="10" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="30">
+      <c r="B10" s="33">
         <f>(C4/100)*C9</f>
         <v>20</v>
       </c>
-      <c r="C10" s="31"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="16" t="s">
         <v>7</v>
       </c>

--- a/Excel/DCA/2020.12.26 Stoploss Management.xlsx
+++ b/Excel/DCA/2020.12.26 Stoploss Management.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phips\Documents\GitHub\ProfitTrailer\Excel\DCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073B2071-4DED-44DE-9BFB-615AEB87C4CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9944A03C-65DF-44B1-AC1F-675320E0812A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B0D0678C-85B3-486A-B817-EE8F81968550}"/>
   </bookViews>
@@ -615,67 +615,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -683,36 +626,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -743,11 +656,98 @@
     <xf numFmtId="168" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1089,7 +1089,7 @@
   <dimension ref="A1:CU944"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1282,121 +1282,121 @@
     </row>
     <row r="2" spans="1:98" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="65"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="36"/>
-      <c r="AP2" s="36"/>
-      <c r="AQ2" s="36"/>
-      <c r="AR2" s="36"/>
-      <c r="AS2" s="36"/>
-      <c r="AT2" s="36"/>
-      <c r="AU2" s="36"/>
-      <c r="AV2" s="36"/>
-      <c r="AW2" s="36"/>
-      <c r="AX2" s="36"/>
-      <c r="AY2" s="36"/>
-      <c r="AZ2" s="36"/>
-      <c r="BA2" s="36"/>
-      <c r="BB2" s="36"/>
-      <c r="BC2" s="36"/>
-      <c r="BD2" s="36"/>
-      <c r="BE2" s="36"/>
-      <c r="BF2" s="36"/>
-      <c r="BG2" s="36"/>
-      <c r="BH2" s="36"/>
-      <c r="BI2" s="36"/>
-      <c r="BJ2" s="36"/>
-      <c r="BK2" s="36"/>
-      <c r="BL2" s="36"/>
-      <c r="BM2" s="36"/>
-      <c r="BN2" s="36"/>
-      <c r="BO2" s="36"/>
-      <c r="BP2" s="36"/>
-      <c r="BQ2" s="36"/>
-      <c r="BR2" s="36"/>
-      <c r="BS2" s="36"/>
-      <c r="BT2" s="36"/>
-      <c r="BU2" s="36"/>
-      <c r="BV2" s="36"/>
-      <c r="BW2" s="36"/>
-      <c r="BX2" s="36"/>
-      <c r="BY2" s="36"/>
-      <c r="BZ2" s="36"/>
-      <c r="CA2" s="36"/>
-      <c r="CB2" s="36"/>
-      <c r="CC2" s="36"/>
-      <c r="CD2" s="36"/>
-      <c r="CE2" s="36"/>
-      <c r="CF2" s="36"/>
-      <c r="CG2" s="36"/>
-      <c r="CH2" s="36"/>
-      <c r="CI2" s="36"/>
-      <c r="CJ2" s="36"/>
-      <c r="CK2" s="36"/>
-      <c r="CL2" s="36"/>
-      <c r="CM2" s="36"/>
-      <c r="CN2" s="36"/>
-      <c r="CO2" s="36"/>
-      <c r="CP2" s="36"/>
-      <c r="CQ2" s="36"/>
-      <c r="CR2" s="36"/>
-      <c r="CS2" s="36"/>
-      <c r="CT2" s="36"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="44"/>
+      <c r="AR2" s="44"/>
+      <c r="AS2" s="44"/>
+      <c r="AT2" s="44"/>
+      <c r="AU2" s="44"/>
+      <c r="AV2" s="44"/>
+      <c r="AW2" s="44"/>
+      <c r="AX2" s="44"/>
+      <c r="AY2" s="44"/>
+      <c r="AZ2" s="44"/>
+      <c r="BA2" s="44"/>
+      <c r="BB2" s="44"/>
+      <c r="BC2" s="44"/>
+      <c r="BD2" s="44"/>
+      <c r="BE2" s="44"/>
+      <c r="BF2" s="44"/>
+      <c r="BG2" s="44"/>
+      <c r="BH2" s="44"/>
+      <c r="BI2" s="44"/>
+      <c r="BJ2" s="44"/>
+      <c r="BK2" s="44"/>
+      <c r="BL2" s="44"/>
+      <c r="BM2" s="44"/>
+      <c r="BN2" s="44"/>
+      <c r="BO2" s="44"/>
+      <c r="BP2" s="44"/>
+      <c r="BQ2" s="44"/>
+      <c r="BR2" s="44"/>
+      <c r="BS2" s="44"/>
+      <c r="BT2" s="44"/>
+      <c r="BU2" s="44"/>
+      <c r="BV2" s="44"/>
+      <c r="BW2" s="44"/>
+      <c r="BX2" s="44"/>
+      <c r="BY2" s="44"/>
+      <c r="BZ2" s="44"/>
+      <c r="CA2" s="44"/>
+      <c r="CB2" s="44"/>
+      <c r="CC2" s="44"/>
+      <c r="CD2" s="44"/>
+      <c r="CE2" s="44"/>
+      <c r="CF2" s="44"/>
+      <c r="CG2" s="44"/>
+      <c r="CH2" s="44"/>
+      <c r="CI2" s="44"/>
+      <c r="CJ2" s="44"/>
+      <c r="CK2" s="44"/>
+      <c r="CL2" s="44"/>
+      <c r="CM2" s="44"/>
+      <c r="CN2" s="44"/>
+      <c r="CO2" s="44"/>
+      <c r="CP2" s="44"/>
+      <c r="CQ2" s="44"/>
+      <c r="CR2" s="44"/>
+      <c r="CS2" s="44"/>
+      <c r="CT2" s="44"/>
     </row>
     <row r="3" spans="1:98" s="13" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="29" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="51"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="43"/>
       <c r="I3" s="8" t="s">
         <v>1</v>
       </c>
@@ -1612,17 +1612,17 @@
     </row>
     <row r="4" spans="1:98" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="54"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="58"/>
       <c r="E4" s="23">
         <v>0</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="64">
         <v>0</v>
       </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="52"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="56"/>
       <c r="I4" s="14" t="s">
         <v>2</v>
       </c>
@@ -1634,7 +1634,7 @@
         <f>IF(ISBLANK($F4),"",IF(J4&lt;$C$17,1,$C$17/J4))</f>
         <v>0.4</v>
       </c>
-      <c r="M4" s="69">
+      <c r="M4" s="29">
         <f>($C$14+$C$12)*M3</f>
         <v>100</v>
       </c>
@@ -1642,7 +1642,7 @@
         <f>IF(ISBLANK($F4),"",IF(M4&lt;$C$17,1,$C$17/M4))</f>
         <v>0.2</v>
       </c>
-      <c r="P4" s="69">
+      <c r="P4" s="29">
         <f t="shared" ref="P4:CS4" si="0">($C$14+$C$12)*P3</f>
         <v>150</v>
       </c>
@@ -1650,7 +1650,7 @@
         <f>IF(ISBLANK($F4),"",IF(P4&lt;$C$17,1,$C$17/P4))</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="S4" s="69">
+      <c r="S4" s="29">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
@@ -1658,7 +1658,7 @@
         <f>IF(ISBLANK($F4),"",IF(S4&lt;$C$17,1,$C$17/S4))</f>
         <v>0.1</v>
       </c>
-      <c r="V4" s="69">
+      <c r="V4" s="29">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
@@ -1666,7 +1666,7 @@
         <f>IF(ISBLANK($F4),"",IF(V4&lt;$C$17,1,$C$17/V4))</f>
         <v>0.08</v>
       </c>
-      <c r="Y4" s="69">
+      <c r="Y4" s="29">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
@@ -1674,7 +1674,7 @@
         <f>IF(ISBLANK($F4),"",IF(Y4&lt;$C$17,1,$C$17/Y4))</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="AB4" s="69">
+      <c r="AB4" s="29">
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
@@ -1682,7 +1682,7 @@
         <f>IF(ISBLANK($F4),"",IF(AB4&lt;$C$17,1,$C$17/AB4))</f>
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="AE4" s="69">
+      <c r="AE4" s="29">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
@@ -1690,7 +1690,7 @@
         <f>IF(ISBLANK($F4),"",IF(AE4&lt;$C$17,1,$C$17/AE4))</f>
         <v>0.05</v>
       </c>
-      <c r="AH4" s="69">
+      <c r="AH4" s="29">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
@@ -1698,7 +1698,7 @@
         <f>IF(ISBLANK($F4),"",IF(AH4&lt;$C$17,1,$C$17/AH4))</f>
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="AK4" s="69">
+      <c r="AK4" s="29">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
@@ -1706,7 +1706,7 @@
         <f t="shared" ref="AL4:AL34" si="1">IF(ISBLANK($F4),"",IF(AK4&lt;$C$17,1,$C$17/AK4))</f>
         <v>0.04</v>
       </c>
-      <c r="AN4" s="69">
+      <c r="AN4" s="29">
         <f t="shared" si="0"/>
         <v>550</v>
       </c>
@@ -1714,7 +1714,7 @@
         <f>IF(ISBLANK($F4),"",IF(AN4&lt;$C$17,1,$C$17/AN4))</f>
         <v>3.6363636363636362E-2</v>
       </c>
-      <c r="AQ4" s="69">
+      <c r="AQ4" s="29">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
@@ -1722,7 +1722,7 @@
         <f>IF(ISBLANK($F4),"",IF(AQ4&lt;$C$17,1,$C$17/AQ4))</f>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="AT4" s="69">
+      <c r="AT4" s="29">
         <f t="shared" si="0"/>
         <v>650</v>
       </c>
@@ -1730,7 +1730,7 @@
         <f>IF(ISBLANK($F4),"",IF(AT4&lt;$C$17,1,$C$17/AT4))</f>
         <v>3.0769230769230771E-2</v>
       </c>
-      <c r="AW4" s="69">
+      <c r="AW4" s="29">
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
@@ -1738,7 +1738,7 @@
         <f>IF(ISBLANK($F4),"",IF(AW4&lt;$C$17,1,$C$17/AW4))</f>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="AZ4" s="70">
+      <c r="AZ4" s="30">
         <f t="shared" si="0"/>
         <v>750</v>
       </c>
@@ -1746,7 +1746,7 @@
         <f>IF(ISBLANK($F4),"",IF(AZ4&lt;$C$17,1,$C$17/AZ4))</f>
         <v>2.6666666666666668E-2</v>
       </c>
-      <c r="BC4" s="69">
+      <c r="BC4" s="29">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
@@ -1754,7 +1754,7 @@
         <f>IF(ISBLANK($F4),"",IF(BC4&lt;$C$17,1,$C$17/BC4))</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="BF4" s="69">
+      <c r="BF4" s="29">
         <f t="shared" si="0"/>
         <v>850</v>
       </c>
@@ -1762,7 +1762,7 @@
         <f>IF(ISBLANK($F4),"",IF(BF4&lt;$C$17,1,$C$17/BF4))</f>
         <v>2.3529411764705882E-2</v>
       </c>
-      <c r="BI4" s="69">
+      <c r="BI4" s="29">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
@@ -1770,7 +1770,7 @@
         <f>IF(ISBLANK($F4),"",IF(BI4&lt;$C$17,1,$C$17/BI4))</f>
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="BL4" s="69">
+      <c r="BL4" s="29">
         <f t="shared" si="0"/>
         <v>950</v>
       </c>
@@ -1778,7 +1778,7 @@
         <f t="shared" ref="BM4:BM34" si="2">IF(ISBLANK($F4),"",IF(BL4&lt;$C$17,1,$C$17/BL4))</f>
         <v>2.1052631578947368E-2</v>
       </c>
-      <c r="BO4" s="69">
+      <c r="BO4" s="29">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
@@ -1786,7 +1786,7 @@
         <f t="shared" ref="BP4:BP34" si="3">IF(ISBLANK($F4),"",IF(BO4&lt;$C$17,1,$C$17/BO4))</f>
         <v>0.02</v>
       </c>
-      <c r="BR4" s="69">
+      <c r="BR4" s="29">
         <f t="shared" si="0"/>
         <v>1050</v>
       </c>
@@ -1794,7 +1794,7 @@
         <f t="shared" ref="BS4:BS34" si="4">IF(ISBLANK($F4),"",IF(BR4&lt;$C$17,1,$C$17/BR4))</f>
         <v>1.9047619047619049E-2</v>
       </c>
-      <c r="BU4" s="69">
+      <c r="BU4" s="29">
         <f t="shared" si="0"/>
         <v>1100</v>
       </c>
@@ -1802,7 +1802,7 @@
         <f t="shared" ref="BV4:BV34" si="5">IF(ISBLANK($F4),"",IF(BU4&lt;$C$17,1,$C$17/BU4))</f>
         <v>1.8181818181818181E-2</v>
       </c>
-      <c r="BX4" s="69">
+      <c r="BX4" s="29">
         <f t="shared" si="0"/>
         <v>1150</v>
       </c>
@@ -1810,7 +1810,7 @@
         <f t="shared" ref="BY4:BY34" si="6">IF(ISBLANK($F4),"",IF(BX4&lt;$C$17,1,$C$17/BX4))</f>
         <v>1.7391304347826087E-2</v>
       </c>
-      <c r="CA4" s="69">
+      <c r="CA4" s="29">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
@@ -1818,7 +1818,7 @@
         <f t="shared" ref="CB4:CB34" si="7">IF(ISBLANK($F4),"",IF(CA4&lt;$C$17,1,$C$17/CA4))</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="CD4" s="69">
+      <c r="CD4" s="29">
         <f t="shared" si="0"/>
         <v>1250</v>
       </c>
@@ -1826,7 +1826,7 @@
         <f t="shared" ref="CE4:CE34" si="8">IF(ISBLANK($F4),"",IF(CD4&lt;$C$17,1,$C$17/CD4))</f>
         <v>1.6E-2</v>
       </c>
-      <c r="CG4" s="69">
+      <c r="CG4" s="29">
         <f t="shared" si="0"/>
         <v>1300</v>
       </c>
@@ -1834,7 +1834,7 @@
         <f t="shared" ref="CH4:CH34" si="9">IF(ISBLANK($F4),"",IF(CG4&lt;$C$17,1,$C$17/CG4))</f>
         <v>1.5384615384615385E-2</v>
       </c>
-      <c r="CJ4" s="69">
+      <c r="CJ4" s="29">
         <f t="shared" si="0"/>
         <v>1350</v>
       </c>
@@ -1842,7 +1842,7 @@
         <f t="shared" ref="CK4:CK34" si="10">IF(ISBLANK($F4),"",IF(CJ4&lt;$C$17,1,$C$17/CJ4))</f>
         <v>1.4814814814814815E-2</v>
       </c>
-      <c r="CM4" s="69">
+      <c r="CM4" s="29">
         <f t="shared" si="0"/>
         <v>1400</v>
       </c>
@@ -1850,7 +1850,7 @@
         <f t="shared" ref="CN4:CN34" si="11">IF(ISBLANK($F4),"",IF(CM4&lt;$C$17,1,$C$17/CM4))</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="CP4" s="69">
+      <c r="CP4" s="29">
         <f t="shared" si="0"/>
         <v>1450</v>
       </c>
@@ -1858,7 +1858,7 @@
         <f t="shared" ref="CQ4:CQ34" si="12">IF(ISBLANK($F4),"",IF(CP4&lt;$C$17,1,$C$17/CP4))</f>
         <v>1.3793103448275862E-2</v>
       </c>
-      <c r="CS4" s="69">
+      <c r="CS4" s="29">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
@@ -1875,11 +1875,11 @@
       <c r="E5" s="18">
         <v>1</v>
       </c>
-      <c r="F5" s="49">
+      <c r="F5" s="31">
         <v>0.5</v>
       </c>
-      <c r="G5" s="50"/>
-      <c r="H5" s="55" t="s">
+      <c r="G5" s="32"/>
+      <c r="H5" s="59" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="19">
@@ -2128,21 +2128,21 @@
     </row>
     <row r="6" spans="1:98" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="37">
+      <c r="C6" s="42"/>
+      <c r="D6" s="45">
         <v>1000</v>
       </c>
       <c r="E6" s="23">
         <v>2</v>
       </c>
-      <c r="F6" s="49">
+      <c r="F6" s="31">
         <v>1</v>
       </c>
-      <c r="G6" s="50"/>
-      <c r="H6" s="56"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="60"/>
       <c r="I6" s="19">
         <v>2</v>
       </c>
@@ -2389,17 +2389,17 @@
     </row>
     <row r="7" spans="1:98" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="37"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="45"/>
       <c r="E7" s="23">
         <v>3</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F7" s="31">
         <v>1</v>
       </c>
-      <c r="G7" s="50"/>
-      <c r="H7" s="56"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="60"/>
       <c r="I7" s="19">
         <v>3</v>
       </c>
@@ -2646,17 +2646,17 @@
     </row>
     <row r="8" spans="1:98" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="37"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="23">
         <v>4</v>
       </c>
-      <c r="F8" s="49">
+      <c r="F8" s="31">
         <v>2</v>
       </c>
-      <c r="G8" s="50"/>
-      <c r="H8" s="56"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="60"/>
       <c r="I8" s="19">
         <v>4</v>
       </c>
@@ -2903,17 +2903,17 @@
     </row>
     <row r="9" spans="1:98" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="38"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="23">
         <v>5</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="31">
         <v>2</v>
       </c>
-      <c r="G9" s="50"/>
-      <c r="H9" s="56"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="60"/>
       <c r="I9" s="19">
         <v>5</v>
       </c>
@@ -3160,17 +3160,17 @@
     </row>
     <row r="10" spans="1:98" ht="14.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="52"/>
       <c r="E10" s="24">
         <v>6</v>
       </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="56"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="60"/>
       <c r="I10" s="19">
         <v>6</v>
       </c>
@@ -3417,15 +3417,15 @@
     </row>
     <row r="11" spans="1:98" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="48"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
       <c r="E11" s="24">
         <v>7</v>
       </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="56"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="60"/>
       <c r="I11" s="19">
         <v>7</v>
       </c>
@@ -3672,20 +3672,22 @@
     </row>
     <row r="12" spans="1:98" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="66">
+      <c r="C12" s="39">
         <f>D6/100*D12</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="57"/>
+        <v>50</v>
+      </c>
+      <c r="D12" s="68">
+        <v>5</v>
+      </c>
       <c r="E12" s="24">
         <v>8</v>
       </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="56"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="60"/>
       <c r="I12" s="19">
         <v>8</v>
       </c>
@@ -3932,15 +3934,15 @@
     </row>
     <row r="13" spans="1:98" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="58"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="69"/>
       <c r="E13" s="24">
         <v>9</v>
       </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="56"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="60"/>
       <c r="I13" s="19">
         <v>9</v>
       </c>
@@ -4187,22 +4189,20 @@
     </row>
     <row r="14" spans="1:98" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="66">
+      <c r="C14" s="39">
         <f>D14</f>
-        <v>50</v>
-      </c>
-      <c r="D14" s="57">
-        <v>50</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="68"/>
       <c r="E14" s="24">
         <v>10</v>
       </c>
-      <c r="F14" s="49"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="56"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="60"/>
       <c r="I14" s="19">
         <v>10</v>
       </c>
@@ -4449,15 +4449,15 @@
     </row>
     <row r="15" spans="1:98" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="59"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="70"/>
       <c r="E15" s="24">
         <v>11</v>
       </c>
-      <c r="F15" s="49"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="56"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="60"/>
       <c r="I15" s="19">
         <v>11</v>
       </c>
@@ -4710,9 +4710,9 @@
       <c r="E16" s="23">
         <v>12</v>
       </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="56"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="60"/>
       <c r="I16" s="19">
         <v>12</v>
       </c>
@@ -4959,22 +4959,22 @@
     </row>
     <row r="17" spans="1:98" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="34">
+      <c r="C17" s="66">
         <f>(D6/100)*D17</f>
         <v>20</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="67">
         <v>2</v>
       </c>
       <c r="E17" s="23">
         <v>13</v>
       </c>
-      <c r="F17" s="49"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="56"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="60"/>
       <c r="I17" s="19">
         <v>13</v>
       </c>
@@ -5221,15 +5221,15 @@
     </row>
     <row r="18" spans="1:98" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="67"/>
       <c r="E18" s="23">
         <v>14</v>
       </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="56"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="60"/>
       <c r="I18" s="19">
         <v>14</v>
       </c>
@@ -5482,9 +5482,9 @@
       <c r="E19" s="23">
         <v>15</v>
       </c>
-      <c r="F19" s="49"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="56"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="60"/>
       <c r="I19" s="19">
         <v>15</v>
       </c>
@@ -5737,9 +5737,9 @@
       <c r="E20" s="23">
         <v>16</v>
       </c>
-      <c r="F20" s="49"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="56"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="60"/>
       <c r="I20" s="19">
         <v>16</v>
       </c>
@@ -5992,9 +5992,9 @@
       <c r="E21" s="23">
         <v>17</v>
       </c>
-      <c r="F21" s="49"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="56"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="60"/>
       <c r="I21" s="19">
         <v>17</v>
       </c>
@@ -6247,9 +6247,9 @@
       <c r="E22" s="25">
         <v>18</v>
       </c>
-      <c r="F22" s="49"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="56"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="60"/>
       <c r="I22" s="19">
         <v>18</v>
       </c>
@@ -6502,9 +6502,9 @@
       <c r="E23" s="25">
         <v>19</v>
       </c>
-      <c r="F23" s="49"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="56"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="60"/>
       <c r="I23" s="19">
         <v>19</v>
       </c>
@@ -6757,9 +6757,9 @@
       <c r="E24" s="25">
         <v>20</v>
       </c>
-      <c r="F24" s="49"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="56"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="60"/>
       <c r="I24" s="19">
         <v>20</v>
       </c>
@@ -7012,9 +7012,9 @@
       <c r="E25" s="23">
         <v>21</v>
       </c>
-      <c r="F25" s="49"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="56"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="60"/>
       <c r="I25" s="19">
         <v>21</v>
       </c>
@@ -7267,9 +7267,9 @@
       <c r="E26" s="23">
         <v>22</v>
       </c>
-      <c r="F26" s="49"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="56"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="60"/>
       <c r="I26" s="19">
         <v>22</v>
       </c>
@@ -7522,9 +7522,9 @@
       <c r="E27" s="23">
         <v>23</v>
       </c>
-      <c r="F27" s="49"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="56"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="60"/>
       <c r="I27" s="19">
         <v>23</v>
       </c>
@@ -7777,9 +7777,9 @@
       <c r="E28" s="23">
         <v>24</v>
       </c>
-      <c r="F28" s="49"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="56"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="60"/>
       <c r="I28" s="19">
         <v>24</v>
       </c>
@@ -8032,9 +8032,9 @@
       <c r="E29" s="23">
         <v>25</v>
       </c>
-      <c r="F29" s="49"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="56"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="60"/>
       <c r="I29" s="19">
         <v>25</v>
       </c>
@@ -8287,9 +8287,9 @@
       <c r="E30" s="23">
         <v>26</v>
       </c>
-      <c r="F30" s="49"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="56"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="60"/>
       <c r="I30" s="19">
         <v>26</v>
       </c>
@@ -8542,9 +8542,9 @@
       <c r="E31" s="23">
         <v>27</v>
       </c>
-      <c r="F31" s="49"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="56"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="60"/>
       <c r="I31" s="19">
         <v>27</v>
       </c>
@@ -8797,9 +8797,9 @@
       <c r="E32" s="23">
         <v>28</v>
       </c>
-      <c r="F32" s="49"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="56"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="60"/>
       <c r="I32" s="19">
         <v>28</v>
       </c>
@@ -9052,9 +9052,9 @@
       <c r="E33" s="23">
         <v>29</v>
       </c>
-      <c r="F33" s="49"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="56"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="60"/>
       <c r="I33" s="19">
         <v>29</v>
       </c>
@@ -9307,9 +9307,9 @@
       <c r="E34" s="23">
         <v>30</v>
       </c>
-      <c r="F34" s="49"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="56"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="60"/>
       <c r="I34" s="19">
         <v>30</v>
       </c>
@@ -12289,45 +12289,6 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="E2:CT2"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B10:D11"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:H34"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="F4:G4"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
@@ -12340,6 +12301,45 @@
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:H34"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="E2:CT2"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B10:D11"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
   </mergeCells>
   <conditionalFormatting sqref="J4:K34 AK4:AL34 AH4:AI34 AE4:AF34 AB4:AC34 Y4:Z34 V4:W34 S4:T34 P4:Q34 M4:N34 BI4:BJ34 BF4:BG34 BC4:BD34 AZ4:BA34 AW4:AX34 AT4:AU34 AQ4:AR34 AN4:AO34 CD4:CE34 CA4:CB34 BX4:BY34 BU4:BV34 BR4:BS34 BO4:BP34 BL4:BM34 CS4:CT34 CP4:CQ34 CM4:CN34 CJ4:CK34 CG4:CH34">
     <cfRule type="cellIs" dxfId="1" priority="246" operator="lessThan">
